--- a/knowledge_library/individual_red_flag.xlsx
+++ b/knowledge_library/individual_red_flag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22156\Desktop\projects\IMI_Big_Data_2026\knowledge_library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CBF2E8-F599-44E7-8A88-96BE832452B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC8D64E-5982-4F86-B264-95A8B6EC1BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>LF</t>
   </si>
@@ -166,40 +166,49 @@
     <t>transaction_ecommerce_ratio: 95th percentile = 0.49, 98th percentile = 0.79, 99th percentile = 0.98; transaction_volume_90d: 95th percentile = 76994.2, 98th percentile = 129180.3, 99th percentile = 198059.4</t>
   </si>
   <si>
-    <t>1 if (txn_volume_vs_income &gt; 2477.8)</t>
-  </si>
-  <si>
-    <t>1 if (txn_volume_vs_occupation_median &gt; 1562.0)</t>
-  </si>
-  <si>
-    <t>1 if (median_amt_wire &gt; 6817.2 &amp; (age &lt;= 25 | income &lt;= 40000))</t>
-  </si>
-  <si>
-    <t>1 if (wire_ratio &gt; 0.47 &amp; (age &lt;= 25 | income &lt;= 40000))</t>
-  </si>
-  <si>
-    <t>1 if (count_txn_below_threshold_frequency &gt; 0.009 &amp; n_txn_total &gt; 5)</t>
-  </si>
-  <si>
-    <t>1 if (transaction_ecommerce_ratio &gt; 0.98 &amp; transaction_volume_90d &gt; 198059.4 &amp; n_txn_total &gt; 10)</t>
-  </si>
-  <si>
-    <t>1 if (transaction_ecommerce_ratio &gt; 0.98 &amp; occupation == UNEMPLOYED)</t>
-  </si>
-  <si>
-    <t>1 if (transaction_unique_merchants &gt; 46 &amp; n_txn_total / transaction_unique_merchants &lt; 1.5)</t>
-  </si>
-  <si>
-    <t>1 if (transaction_same_amount_frequency_7d &gt; 0.14 &amp; transaction_round_amount_frequency_7d &gt; 0.5)</t>
-  </si>
-  <si>
-    <t>1 if (n_txn_total &gt; 50 &amp; median_hold_time_funds &lt;= 0.11)</t>
-  </si>
-  <si>
-    <t>1 if (cross_border_ratio &gt; 0.17 &amp; transaction_unique_countries &gt;= 3)</t>
-  </si>
-  <si>
-    <t>Heurisitic</t>
+    <t>IF (txn_volume_vs_income &gt; 2477.8) Fraud, ELSE Abstain</t>
+  </si>
+  <si>
+    <t>IF (txn_volume_vs_occupation_median &gt; 1562.0) FRAUD, ELSE Abstain</t>
+  </si>
+  <si>
+    <t>IF (median_amt_wire &gt; 6817.2 &amp; (age &lt;= 25 | income &lt;= 40000)) FRAUD, ELSE Abstain</t>
+  </si>
+  <si>
+    <t>IF (wire_ratio &gt; 0.47 &amp; (age &lt;= 25 | income &lt;= 40000)) FRAUD, ELSE Abstain</t>
+  </si>
+  <si>
+    <t>IF (count_txn_below_threshold_frequency &gt; 0.009 &amp; n_txn_total &gt; 5) FRAUD, ELSE Abstain</t>
+  </si>
+  <si>
+    <t>IF (n_txn_total &gt; 50 &amp; median_hold_time_funds &lt;= 0.11) FRAUD, ELSE Abstain</t>
+  </si>
+  <si>
+    <t>IF (cross_border_ratio &gt; 0.17 &amp; transaction_unique_countries &gt;= 3) FRAUD, ELSE Abstain</t>
+  </si>
+  <si>
+    <t>IF (transaction_ecommerce_ratio &gt; 0.98 &amp; transaction_volume_90d &gt; 198059.4 &amp; n_txn_total &gt; 10) FRAUD, ELSE Abstain</t>
+  </si>
+  <si>
+    <t>IF (transaction_ecommerce_ratio &gt; 0.98 &amp; occupation == UNEMPLOYED) FRAUD, ELSE Abstain</t>
+  </si>
+  <si>
+    <t>IF (transaction_unique_merchants &gt; 46 &amp; n_txn_total / transaction_unique_merchants &lt; 1.5) FRAUD, ELSE Abstain</t>
+  </si>
+  <si>
+    <t>IF (transaction_same_amount_frequency_7d &gt; 0.14 &amp; transaction_round_amount_frequency_7d &gt; 0.5) FRAUD, ELSE Abstain</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>categorical &amp; continuous</t>
+  </si>
+  <si>
+    <t>Heuristic</t>
   </si>
 </sst>
 </file>
@@ -493,220 +502,257 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="49.77734375" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="68.77734375" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
